--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H2">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I2">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J2">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>18.29777199791867</v>
+        <v>5.463502170808222</v>
       </c>
       <c r="R2">
-        <v>164.679947981268</v>
+        <v>49.171519537274</v>
       </c>
       <c r="S2">
-        <v>0.005833744438017075</v>
+        <v>0.002270123721990784</v>
       </c>
       <c r="T2">
-        <v>0.006803414221314835</v>
+        <v>0.00264429144836881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H3">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I3">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J3">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>922.5532457350646</v>
+        <v>505.6007929524991</v>
       </c>
       <c r="R3">
-        <v>8302.979211615582</v>
+        <v>4550.407136572492</v>
       </c>
       <c r="S3">
-        <v>0.2941308847161128</v>
+        <v>0.2100806988000203</v>
       </c>
       <c r="T3">
-        <v>0.3430205531399144</v>
+        <v>0.2447067487656924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H4">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I4">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J4">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>1.998578116594</v>
+        <v>1.294625017471555</v>
       </c>
       <c r="R4">
-        <v>17.987203049346</v>
+        <v>11.651625157244</v>
       </c>
       <c r="S4">
-        <v>0.0006371920020070802</v>
+        <v>0.0005379258342657798</v>
       </c>
       <c r="T4">
-        <v>0.0007431043944798791</v>
+        <v>0.000626588176506194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H5">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I5">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J5">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>288.103380165198</v>
+        <v>195.5519777903543</v>
       </c>
       <c r="R5">
-        <v>1728.620280991188</v>
+        <v>1173.311866742126</v>
       </c>
       <c r="S5">
-        <v>0.09185388755548057</v>
+        <v>0.08125322728634109</v>
       </c>
       <c r="T5">
-        <v>0.07141440076411991</v>
+        <v>0.06309706441233667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H6">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I6">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J6">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>9.898187853605998</v>
+        <v>1.198749357926667</v>
       </c>
       <c r="R6">
-        <v>89.08369068245399</v>
+        <v>10.78874422134</v>
       </c>
       <c r="S6">
-        <v>0.003155766633445338</v>
+        <v>0.0004980888208831775</v>
       </c>
       <c r="T6">
-        <v>0.003680309931511267</v>
+        <v>0.0005801851224366162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J7">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>13.80946958905155</v>
+        <v>7.523736914415776</v>
       </c>
       <c r="R7">
-        <v>124.285226301464</v>
+        <v>67.71363222974199</v>
       </c>
       <c r="S7">
-        <v>0.00440277190120519</v>
+        <v>0.003126165802347685</v>
       </c>
       <c r="T7">
-        <v>0.005134589162093334</v>
+        <v>0.003641428622261039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J8">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>696.2580467560928</v>
@@ -948,10 +948,10 @@
         <v>6266.322420804835</v>
       </c>
       <c r="S8">
-        <v>0.2219828462257596</v>
+        <v>0.2893001337151763</v>
       </c>
       <c r="T8">
-        <v>0.2588802558882091</v>
+        <v>0.3369833380376877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J9">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>1.508342312145333</v>
+        <v>1.782815807472444</v>
       </c>
       <c r="R9">
-        <v>13.575080809308</v>
+        <v>16.045342267252</v>
       </c>
       <c r="S9">
-        <v>0.0004808937161914878</v>
+        <v>0.0007407725539321314</v>
       </c>
       <c r="T9">
-        <v>0.0005608266152965359</v>
+        <v>0.000862868622786459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J10">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>217.433842073604</v>
+        <v>269.2927700934096</v>
       </c>
       <c r="R10">
-        <v>1304.603052441624</v>
+        <v>1615.756620560458</v>
       </c>
       <c r="S10">
-        <v>0.06932283706332411</v>
+        <v>0.1118930470671388</v>
       </c>
       <c r="T10">
-        <v>0.05389699880863263</v>
+        <v>0.08689036772911921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J11">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>7.470238680787999</v>
+        <v>1.650786347913333</v>
       </c>
       <c r="R11">
-        <v>67.23214812709199</v>
+        <v>14.85707713122</v>
       </c>
       <c r="S11">
-        <v>0.002381681406876426</v>
+        <v>0.0006859133814130469</v>
       </c>
       <c r="T11">
-        <v>0.002777558277765745</v>
+        <v>0.0007989674180408469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H12">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I12">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J12">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>2.428719773362667</v>
+        <v>1.229925885287889</v>
       </c>
       <c r="R12">
-        <v>21.858477960264</v>
+        <v>11.069332967591</v>
       </c>
       <c r="S12">
-        <v>0.0007743309114884692</v>
+        <v>0.0005110428880948933</v>
       </c>
       <c r="T12">
-        <v>0.0009030381757715438</v>
+        <v>0.000595274312870473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H13">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I13">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J13">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>122.4533407756707</v>
+        <v>113.8192103586864</v>
       </c>
       <c r="R13">
-        <v>1102.080066981036</v>
+        <v>1024.372893228178</v>
       </c>
       <c r="S13">
-        <v>0.03904090048492982</v>
+        <v>0.04729268541963264</v>
       </c>
       <c r="T13">
-        <v>0.04553017712623553</v>
+        <v>0.05508758946224455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H14">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I14">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J14">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.265277444212</v>
+        <v>0.2914417842162222</v>
       </c>
       <c r="R14">
-        <v>2.387496997908</v>
+        <v>2.622976057946</v>
       </c>
       <c r="S14">
-        <v>8.457646181618023E-05</v>
+        <v>0.0001210961187978613</v>
       </c>
       <c r="T14">
-        <v>9.863454068349222E-05</v>
+        <v>0.0001410554976655752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H15">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I15">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J15">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>38.240851195404</v>
+        <v>44.02202687658482</v>
       </c>
       <c r="R15">
-        <v>229.445107172424</v>
+        <v>264.132161259509</v>
       </c>
       <c r="S15">
-        <v>0.01219205010269023</v>
+        <v>0.01829146294415539</v>
       </c>
       <c r="T15">
-        <v>0.009479053912049677</v>
+        <v>0.01420420645589859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H16">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I16">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J16">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>1.313817035388</v>
+        <v>0.2698585667566666</v>
       </c>
       <c r="R16">
-        <v>11.824353318492</v>
+        <v>2.42872710081</v>
       </c>
       <c r="S16">
-        <v>0.0004188746489812336</v>
+        <v>0.0001121281395750079</v>
       </c>
       <c r="T16">
-        <v>0.0004884989005099169</v>
+        <v>0.0001306093926632697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H17">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I17">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J17">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>9.79568568296</v>
+        <v>3.0370632543435</v>
       </c>
       <c r="R17">
-        <v>58.77411409776</v>
+        <v>18.222379526061</v>
       </c>
       <c r="S17">
-        <v>0.003123086618197646</v>
+        <v>0.001261921222564793</v>
       </c>
       <c r="T17">
-        <v>0.002428131952916118</v>
+        <v>0.000979942918240865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H18">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I18">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J18">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>493.88754117404</v>
+        <v>281.054448527073</v>
       </c>
       <c r="R18">
-        <v>2963.32524704424</v>
+        <v>1686.326691162438</v>
       </c>
       <c r="S18">
-        <v>0.1574625422514674</v>
+        <v>0.1167801074888128</v>
       </c>
       <c r="T18">
-        <v>0.1224237035247018</v>
+        <v>0.09068540672648318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H19">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I19">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J19">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>1.06993589412</v>
+        <v>0.719658919461</v>
       </c>
       <c r="R19">
-        <v>6.41961536472</v>
+        <v>4.317953516766</v>
       </c>
       <c r="S19">
-        <v>0.0003411198134979144</v>
+        <v>0.0002990233615243525</v>
       </c>
       <c r="T19">
-        <v>0.0002652132393961847</v>
+        <v>0.0002322061157817812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H20">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I20">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J20">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>154.23572643804</v>
+        <v>108.7038510270097</v>
       </c>
       <c r="R20">
-        <v>616.94290575216</v>
+        <v>434.815404108039</v>
       </c>
       <c r="S20">
-        <v>0.04917384539242188</v>
+        <v>0.04516721750504256</v>
       </c>
       <c r="T20">
-        <v>0.02548773053542</v>
+        <v>0.02338302060871512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H21">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I21">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J21">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>5.29898050188</v>
+        <v>0.6663633530850001</v>
       </c>
       <c r="R21">
-        <v>31.79388301128</v>
+        <v>3.998180118510001</v>
       </c>
       <c r="S21">
-        <v>0.001689435087152668</v>
+        <v>0.0002768786774509143</v>
       </c>
       <c r="T21">
-        <v>0.001313499053657504</v>
+        <v>0.0002150096965866576</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H22">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I22">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J22">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>1.920226671843556</v>
+        <v>1.288742775224</v>
       </c>
       <c r="R22">
-        <v>17.282040046592</v>
+        <v>11.598684977016</v>
       </c>
       <c r="S22">
-        <v>0.0006122117855591161</v>
+        <v>0.0005354817210857721</v>
       </c>
       <c r="T22">
-        <v>0.0007139720316142596</v>
+        <v>0.0006237412182024977</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H23">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I23">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J23">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>96.81568602220089</v>
+        <v>119.262214728592</v>
       </c>
       <c r="R23">
-        <v>871.3411741998079</v>
+        <v>1073.359932557328</v>
       </c>
       <c r="S23">
-        <v>0.03086703506356219</v>
+        <v>0.04955429216064253</v>
       </c>
       <c r="T23">
-        <v>0.03599767311586987</v>
+        <v>0.05772196013856226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H24">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I24">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J24">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>0.2097371748693334</v>
+        <v>0.305378964944</v>
       </c>
       <c r="R24">
-        <v>1.887634573824</v>
+        <v>2.748410684496</v>
       </c>
       <c r="S24">
-        <v>6.686896511108373E-05</v>
+        <v>0.000126887115780868</v>
       </c>
       <c r="T24">
-        <v>7.798375006567625E-05</v>
+        <v>0.0001478009819100487</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H25">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I25">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J25">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>30.234489472512</v>
+        <v>46.12722584876399</v>
       </c>
       <c r="R25">
-        <v>181.406936835072</v>
+        <v>276.763355092584</v>
       </c>
       <c r="S25">
-        <v>0.009639440518584206</v>
+        <v>0.01916618797891227</v>
       </c>
       <c r="T25">
-        <v>0.007494455451548216</v>
+        <v>0.01488347279034999</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H26">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I26">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J26">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>1.038747467264</v>
+        <v>0.28276360584</v>
       </c>
       <c r="R26">
-        <v>9.348727205375999</v>
+        <v>2.54487245256</v>
       </c>
       <c r="S26">
-        <v>0.0003311762361201665</v>
+        <v>0.0001174902744182634</v>
       </c>
       <c r="T26">
-        <v>0.0003862234862223949</v>
+        <v>0.0001368553285889939</v>
       </c>
     </row>
   </sheetData>
